--- a/cr-simulator/data/discharge_data (2).xlsx
+++ b/cr-simulator/data/discharge_data (2).xlsx
@@ -404,46 +404,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>E [V]</v>
+        <v>電源電圧 E [V]</v>
       </c>
       <c r="B1" t="str">
-        <v>R [Ω]</v>
+        <v>抵抗 R [Ω]</v>
       </c>
       <c r="C1" t="str">
-        <v>C [F]</v>
+        <v>静電容量 C [F]</v>
       </c>
       <c r="D1" t="str">
-        <v>sigma_v</v>
+        <v>電圧計測ノイズ強度 sigma_v</v>
       </c>
       <c r="E1" t="str">
-        <v>sigma_i</v>
+        <v>電流計測ノイズ強度 sigma_i</v>
       </c>
       <c r="F1" t="str">
-        <v>t [秒]</v>
+        <v>時間 t [秒]</v>
       </c>
       <c r="G1" t="str">
-        <v>V [V]</v>
+        <v>コンデンサの端子電圧 (理論値) V [V]</v>
       </c>
       <c r="H1" t="str">
         <v>ln(V)</v>
       </c>
       <c r="I1" t="str">
-        <v>V* [V]</v>
+        <v>電流 (理論値) I [A]</v>
       </c>
       <c r="J1" t="str">
+        <v>ln(I)</v>
+      </c>
+      <c r="K1" t="str">
+        <v>コンデンサの端子電圧 (計測値) V* [V]</v>
+      </c>
+      <c r="L1" t="str">
         <v>ln(V*)</v>
       </c>
-      <c r="K1" t="str">
-        <v>I [A]</v>
-      </c>
-      <c r="L1" t="str">
-        <v>ln(-I)</v>
-      </c>
       <c r="M1" t="str">
-        <v>I* [A]</v>
+        <v>電流 (計測値) I* [A]</v>
       </c>
       <c r="N1" t="str">
-        <v>ln(-I*)</v>
+        <v>ln(I*)</v>
       </c>
     </row>
     <row r="2">
@@ -457,10 +457,10 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>0.41</v>
+        <v>1.3</v>
       </c>
       <c r="E2">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -472,19 +472,19 @@
         <v/>
       </c>
       <c r="I2">
-        <v>19.604509605743154</v>
+        <v>-10</v>
       </c>
       <c r="J2" t="str">
         <v/>
       </c>
       <c r="K2">
-        <v>-10</v>
+        <v>19.660859092291066</v>
       </c>
       <c r="L2" t="str">
         <v/>
       </c>
       <c r="M2">
-        <v>-9.629131110936623</v>
+        <v>-10.406449553365144</v>
       </c>
       <c r="N2" t="str">
         <v/>
@@ -507,28 +507,28 @@
         <v/>
       </c>
       <c r="F3">
-        <v>5.151515151515151</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="G3">
-        <v>18.354480023919283</v>
+        <v>19.403030073932605</v>
       </c>
       <c r="H3" t="str">
         <v/>
       </c>
       <c r="I3">
-        <v>17.947665485167352</v>
+        <v>-9.701515036966303</v>
       </c>
       <c r="J3" t="str">
         <v/>
       </c>
       <c r="K3">
-        <v>-9.177240011959642</v>
+        <v>20.298683945169003</v>
       </c>
       <c r="L3" t="str">
         <v/>
       </c>
       <c r="M3">
-        <v>-9.334884314016936</v>
+        <v>-9.44506635129553</v>
       </c>
       <c r="N3" t="str">
         <v/>
@@ -551,28 +551,28 @@
         <v/>
       </c>
       <c r="F4">
-        <v>10.303030303030303</v>
+        <v>3.6363636363636362</v>
       </c>
       <c r="G4">
-        <v>16.8443468474226</v>
+        <v>18.82387880249665</v>
       </c>
       <c r="H4" t="str">
         <v/>
       </c>
       <c r="I4">
-        <v>17.11463450948054</v>
+        <v>-9.411939401248326</v>
       </c>
       <c r="J4" t="str">
         <v/>
       </c>
       <c r="K4">
-        <v>-8.4221734237113</v>
+        <v>17.8096222715105</v>
       </c>
       <c r="L4" t="str">
         <v/>
       </c>
       <c r="M4">
-        <v>-8.438128441938137</v>
+        <v>-9.30293725741549</v>
       </c>
       <c r="N4" t="str">
         <v/>
@@ -595,28 +595,28 @@
         <v/>
       </c>
       <c r="F5">
-        <v>15.454545454545455</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="G5">
-        <v>15.458461386349294</v>
+        <v>18.262014325645247</v>
       </c>
       <c r="H5" t="str">
         <v/>
       </c>
       <c r="I5">
-        <v>15.730174256416236</v>
+        <v>-9.131007162822623</v>
       </c>
       <c r="J5" t="str">
         <v/>
       </c>
       <c r="K5">
-        <v>-7.729230693174647</v>
+        <v>18.679893104789443</v>
       </c>
       <c r="L5" t="str">
         <v/>
       </c>
       <c r="M5">
-        <v>-8.118019511050868</v>
+        <v>-9.080680782718101</v>
       </c>
       <c r="N5" t="str">
         <v/>
@@ -639,28 +639,28 @@
         <v/>
       </c>
       <c r="F6">
-        <v>20.606060606060606</v>
+        <v>7.2727272727272725</v>
       </c>
       <c r="G6">
-        <v>14.186601035813784</v>
+        <v>17.716920658554137</v>
       </c>
       <c r="H6" t="str">
         <v/>
       </c>
       <c r="I6">
-        <v>14.096996173665515</v>
+        <v>-8.858460329277069</v>
       </c>
       <c r="J6" t="str">
         <v/>
       </c>
       <c r="K6">
-        <v>-7.093300517906892</v>
+        <v>19.918083943046124</v>
       </c>
       <c r="L6" t="str">
         <v/>
       </c>
       <c r="M6">
-        <v>-6.856340333248658</v>
+        <v>-9.29388387157872</v>
       </c>
       <c r="N6" t="str">
         <v/>
@@ -683,28 +683,28 @@
         <v/>
       </c>
       <c r="F7">
-        <v>25.757575757575758</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="G7">
-        <v>13.019384265957834</v>
+        <v>17.188097217770185</v>
       </c>
       <c r="H7" t="str">
         <v/>
       </c>
       <c r="I7">
-        <v>13.144533964017477</v>
+        <v>-8.594048608885092</v>
       </c>
       <c r="J7" t="str">
         <v/>
       </c>
       <c r="K7">
-        <v>-6.509692132978917</v>
+        <v>17.493425889690368</v>
       </c>
       <c r="L7" t="str">
         <v/>
       </c>
       <c r="M7">
-        <v>-6.247133401375521</v>
+        <v>-7.907060533673591</v>
       </c>
       <c r="N7" t="str">
         <v/>
@@ -727,28 +727,28 @@
         <v/>
       </c>
       <c r="F8">
-        <v>30.90909090909091</v>
+        <v>10.909090909090908</v>
       </c>
       <c r="G8">
-        <v>11.948201421662606</v>
+        <v>16.675058361503613</v>
       </c>
       <c r="H8" t="str">
         <v/>
       </c>
       <c r="I8">
-        <v>11.768572088122744</v>
+        <v>-8.337529180751806</v>
       </c>
       <c r="J8" t="str">
         <v/>
       </c>
       <c r="K8">
-        <v>-5.974100710831303</v>
+        <v>14.786282167383337</v>
       </c>
       <c r="L8" t="str">
         <v/>
       </c>
       <c r="M8">
-        <v>-5.736294409150399</v>
+        <v>-8.134211589822138</v>
       </c>
       <c r="N8" t="str">
         <v/>
@@ -771,28 +771,28 @@
         <v/>
       </c>
       <c r="F9">
-        <v>36.06060606060606</v>
+        <v>12.727272727272727</v>
       </c>
       <c r="G9">
-        <v>10.965151215783512</v>
+        <v>16.177332943641794</v>
       </c>
       <c r="H9" t="str">
         <v/>
       </c>
       <c r="I9">
-        <v>10.491611890038685</v>
+        <v>-8.088666471820897</v>
       </c>
       <c r="J9" t="str">
         <v/>
       </c>
       <c r="K9">
-        <v>-5.482575607891756</v>
+        <v>17.63167823527191</v>
       </c>
       <c r="L9" t="str">
         <v/>
       </c>
       <c r="M9">
-        <v>-5.115607422368971</v>
+        <v>-7.763798969297604</v>
       </c>
       <c r="N9" t="str">
         <v/>
@@ -815,28 +815,28 @@
         <v/>
       </c>
       <c r="F10">
-        <v>41.21212121212121</v>
+        <v>14.545454545454545</v>
       </c>
       <c r="G10">
-        <v>10.062982447467636</v>
+        <v>15.694463881075118</v>
       </c>
       <c r="H10" t="str">
         <v/>
       </c>
       <c r="I10">
-        <v>10.455885889705984</v>
+        <v>-7.847231940537559</v>
       </c>
       <c r="J10" t="str">
         <v/>
       </c>
       <c r="K10">
-        <v>-5.031491223733818</v>
+        <v>16.71680237893124</v>
       </c>
       <c r="L10" t="str">
         <v/>
       </c>
       <c r="M10">
-        <v>-5.11525207951474</v>
+        <v>-8.155253391943988</v>
       </c>
       <c r="N10" t="str">
         <v/>
@@ -859,28 +859,28 @@
         <v/>
       </c>
       <c r="F11">
-        <v>46.36363636363637</v>
+        <v>16.363636363636363</v>
       </c>
       <c r="G11">
-        <v>9.235040515654754</v>
+        <v>15.226007733937475</v>
       </c>
       <c r="H11" t="str">
         <v/>
       </c>
       <c r="I11">
-        <v>9.350827280466277</v>
+        <v>-7.613003866968738</v>
       </c>
       <c r="J11" t="str">
         <v/>
       </c>
       <c r="K11">
-        <v>-4.617520257827377</v>
+        <v>17.245239891523102</v>
       </c>
       <c r="L11" t="str">
         <v/>
       </c>
       <c r="M11">
-        <v>-4.9760805615039185</v>
+        <v>-7.394178172015886</v>
       </c>
       <c r="N11" t="str">
         <v/>
@@ -903,28 +903,28 @@
         <v/>
       </c>
       <c r="F12">
-        <v>51.515151515151516</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="G12">
-        <v>8.475218333233522</v>
+        <v>14.771534298375961</v>
       </c>
       <c r="H12" t="str">
         <v/>
       </c>
       <c r="I12">
-        <v>9.011761265345058</v>
+        <v>-7.385767149187981</v>
       </c>
       <c r="J12" t="str">
         <v/>
       </c>
       <c r="K12">
-        <v>-4.237609166616761</v>
+        <v>14.217699541036996</v>
       </c>
       <c r="L12" t="str">
         <v/>
       </c>
       <c r="M12">
-        <v>-4.005410677151972</v>
+        <v>-7.43083358774085</v>
       </c>
       <c r="N12" t="str">
         <v/>
@@ -947,28 +947,28 @@
         <v/>
       </c>
       <c r="F13">
-        <v>56.666666666666664</v>
+        <v>20</v>
       </c>
       <c r="G13">
-        <v>7.777911279784458</v>
+        <v>14.330626211475785</v>
       </c>
       <c r="H13" t="str">
         <v/>
       </c>
       <c r="I13">
-        <v>8.651776399612622</v>
+        <v>-7.1653131057378925</v>
       </c>
       <c r="J13" t="str">
         <v/>
       </c>
       <c r="K13">
-        <v>-3.888955639892229</v>
+        <v>15.000829679743072</v>
       </c>
       <c r="L13" t="str">
         <v/>
       </c>
       <c r="M13">
-        <v>-3.687728427993312</v>
+        <v>-7.312303795908807</v>
       </c>
       <c r="N13" t="str">
         <v/>
@@ -991,28 +991,28 @@
         <v/>
       </c>
       <c r="F14">
-        <v>61.81818181818182</v>
+        <v>21.818181818181817</v>
       </c>
       <c r="G14">
-        <v>7.137975860631015</v>
+        <v>13.902878567977574</v>
       </c>
       <c r="H14" t="str">
         <v/>
       </c>
       <c r="I14">
-        <v>7.6018028935838915</v>
+        <v>-6.951439283988787</v>
       </c>
       <c r="J14" t="str">
         <v/>
       </c>
       <c r="K14">
-        <v>-3.5689879303155077</v>
+        <v>13.988003202915989</v>
       </c>
       <c r="L14" t="str">
         <v/>
       </c>
       <c r="M14">
-        <v>-3.6134394073426144</v>
+        <v>-6.780785472895904</v>
       </c>
       <c r="N14" t="str">
         <v/>
@@ -1035,28 +1035,28 @@
         <v/>
       </c>
       <c r="F15">
-        <v>66.96969696969697</v>
+        <v>23.636363636363637</v>
       </c>
       <c r="G15">
-        <v>6.550691767258501</v>
+        <v>13.487898548435096</v>
       </c>
       <c r="H15" t="str">
         <v/>
       </c>
       <c r="I15">
-        <v>6.928870816494048</v>
+        <v>-6.743949274217548</v>
       </c>
       <c r="J15" t="str">
         <v/>
       </c>
       <c r="K15">
-        <v>-3.2753458836292504</v>
+        <v>12.493765700243902</v>
       </c>
       <c r="L15" t="str">
         <v/>
       </c>
       <c r="M15">
-        <v>-2.9836001155778704</v>
+        <v>-6.218745757428224</v>
       </c>
       <c r="N15" t="str">
         <v/>
@@ -1079,28 +1079,28 @@
         <v/>
       </c>
       <c r="F16">
-        <v>72.12121212121212</v>
+        <v>25.454545454545453</v>
       </c>
       <c r="G16">
-        <v>6.011727059249933</v>
+        <v>13.085305058471903</v>
       </c>
       <c r="H16" t="str">
         <v/>
       </c>
       <c r="I16">
-        <v>6.310017161779622</v>
+        <v>-6.542652529235951</v>
       </c>
       <c r="J16" t="str">
         <v/>
       </c>
       <c r="K16">
-        <v>-3.0058635296249663</v>
+        <v>12.819751981701907</v>
       </c>
       <c r="L16" t="str">
         <v/>
       </c>
       <c r="M16">
-        <v>-3.111467191786187</v>
+        <v>-6.321937620491903</v>
       </c>
       <c r="N16" t="str">
         <v/>
@@ -1123,28 +1123,28 @@
         <v/>
       </c>
       <c r="F17">
-        <v>77.27272727272727</v>
+        <v>27.272727272727273</v>
       </c>
       <c r="G17">
-        <v>5.517106210912895</v>
+        <v>12.694728378805637</v>
       </c>
       <c r="H17" t="str">
         <v/>
       </c>
       <c r="I17">
-        <v>5.309843020617613</v>
+        <v>-6.3473641894028185</v>
       </c>
       <c r="J17" t="str">
         <v/>
       </c>
       <c r="K17">
-        <v>-2.7585531054564476</v>
+        <v>11.89347136766293</v>
       </c>
       <c r="L17" t="str">
         <v/>
       </c>
       <c r="M17">
-        <v>-2.5383098888380773</v>
+        <v>-6.401655427247264</v>
       </c>
       <c r="N17" t="str">
         <v/>
@@ -1167,28 +1167,28 @@
         <v/>
       </c>
       <c r="F18">
-        <v>82.42424242424242</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="G18">
-        <v>5.0631807869020875</v>
+        <v>12.315809825718574</v>
       </c>
       <c r="H18" t="str">
         <v/>
       </c>
       <c r="I18">
-        <v>5.361725617982693</v>
+        <v>-6.157904912859287</v>
       </c>
       <c r="J18" t="str">
         <v/>
       </c>
       <c r="K18">
-        <v>-2.5315903934510438</v>
+        <v>12.520128268709747</v>
       </c>
       <c r="L18" t="str">
         <v/>
       </c>
       <c r="M18">
-        <v>-2.898656095414102</v>
+        <v>-6.184267484379567</v>
       </c>
       <c r="N18" t="str">
         <v/>
@@ -1211,28 +1211,28 @@
         <v/>
       </c>
       <c r="F19">
-        <v>87.57575757575758</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="G19">
-        <v>4.646602530534314</v>
+        <v>11.948201421662606</v>
       </c>
       <c r="H19" t="str">
         <v/>
       </c>
       <c r="I19">
-        <v>5.098133285626552</v>
+        <v>-5.974100710831303</v>
       </c>
       <c r="J19" t="str">
         <v/>
       </c>
       <c r="K19">
-        <v>-2.323301265267157</v>
+        <v>12.404035064916886</v>
       </c>
       <c r="L19" t="str">
         <v/>
       </c>
       <c r="M19">
-        <v>-2.476993504861438</v>
+        <v>-6.086853145853636</v>
       </c>
       <c r="N19" t="str">
         <v/>
@@ -1255,28 +1255,28 @@
         <v/>
       </c>
       <c r="F20">
-        <v>92.72727272727273</v>
+        <v>32.72727272727273</v>
       </c>
       <c r="G20">
-        <v>4.264298666289242</v>
+        <v>11.59156557569619</v>
       </c>
       <c r="H20" t="str">
         <v/>
       </c>
       <c r="I20">
-        <v>4.660675387633122</v>
+        <v>-5.795782787848095</v>
       </c>
       <c r="J20" t="str">
         <v/>
       </c>
       <c r="K20">
-        <v>-2.132149333144621</v>
+        <v>11.9688758059483</v>
       </c>
       <c r="L20" t="str">
         <v/>
       </c>
       <c r="M20">
-        <v>-2.340521720517872</v>
+        <v>-5.606847247108228</v>
       </c>
       <c r="N20" t="str">
         <v/>
@@ -1299,28 +1299,28 @@
         <v/>
       </c>
       <c r="F21">
-        <v>97.87878787878788</v>
+        <v>34.54545454545455</v>
       </c>
       <c r="G21">
-        <v>3.913449234321577</v>
+        <v>11.245574773459753</v>
       </c>
       <c r="H21" t="str">
         <v/>
       </c>
       <c r="I21">
-        <v>3.0289976685011766</v>
+        <v>-5.622787386729876</v>
       </c>
       <c r="J21" t="str">
         <v/>
       </c>
       <c r="K21">
-        <v>-1.9567246171607886</v>
+        <v>11.429287562836324</v>
       </c>
       <c r="L21" t="str">
         <v/>
       </c>
       <c r="M21">
-        <v>-1.841350052343644</v>
+        <v>-5.556446302237368</v>
       </c>
       <c r="N21" t="str">
         <v/>
@@ -1343,28 +1343,28 @@
         <v/>
       </c>
       <c r="F22">
-        <v>103.03030303030303</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="G22">
-        <v>3.5914662897988805</v>
+        <v>10.90991127640487</v>
       </c>
       <c r="H22" t="str">
         <v/>
       </c>
       <c r="I22">
-        <v>3.121858127026576</v>
+        <v>-5.454955638202435</v>
       </c>
       <c r="J22" t="str">
         <v/>
       </c>
       <c r="K22">
-        <v>-1.7957331448994402</v>
+        <v>11.904522808120696</v>
       </c>
       <c r="L22" t="str">
         <v/>
       </c>
       <c r="M22">
-        <v>-1.9502243086854476</v>
+        <v>-5.553287185124106</v>
       </c>
       <c r="N22" t="str">
         <v/>
@@ -1387,28 +1387,28 @@
         <v/>
       </c>
       <c r="F23">
-        <v>108.18181818181819</v>
+        <v>38.18181818181818</v>
       </c>
       <c r="G23">
-        <v>3.295974813634652</v>
+        <v>10.584266830001006</v>
       </c>
       <c r="H23" t="str">
         <v/>
       </c>
       <c r="I23">
-        <v>3.290598623978762</v>
+        <v>-5.292133415000503</v>
       </c>
       <c r="J23" t="str">
         <v/>
       </c>
       <c r="K23">
-        <v>-1.647987406817326</v>
+        <v>10.577243335545852</v>
       </c>
       <c r="L23" t="str">
         <v/>
       </c>
       <c r="M23">
-        <v>-1.778662931714571</v>
+        <v>-5.230873425408992</v>
       </c>
       <c r="N23" t="str">
         <v/>
@@ -1431,28 +1431,28 @@
         <v/>
       </c>
       <c r="F24">
-        <v>113.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>3.0247951938099154</v>
+        <v>10.268342380651841</v>
       </c>
       <c r="H24" t="str">
         <v/>
       </c>
       <c r="I24">
-        <v>3.65857799891711</v>
+        <v>-5.134171190325921</v>
       </c>
       <c r="J24" t="str">
         <v/>
       </c>
       <c r="K24">
-        <v>-1.5123975969049577</v>
+        <v>7.538598402982538</v>
       </c>
       <c r="L24" t="str">
         <v/>
       </c>
       <c r="M24">
-        <v>-1.5209800399298041</v>
+        <v>-5.1620905327896995</v>
       </c>
       <c r="N24" t="str">
         <v/>
@@ -1475,28 +1475,28 @@
         <v/>
       </c>
       <c r="F25">
-        <v>118.48484848484848</v>
+        <v>41.81818181818182</v>
       </c>
       <c r="G25">
-        <v>2.775927148061558</v>
+        <v>9.961847801061218</v>
       </c>
       <c r="H25" t="str">
         <v/>
       </c>
       <c r="I25">
-        <v>3.3975010036423434</v>
+        <v>-4.980923900530609</v>
       </c>
       <c r="J25" t="str">
         <v/>
       </c>
       <c r="K25">
-        <v>-1.387963574030779</v>
+        <v>12.219058217134613</v>
       </c>
       <c r="L25" t="str">
         <v/>
       </c>
       <c r="M25">
-        <v>-1.41740501113214</v>
+        <v>-5.157993238481476</v>
       </c>
       <c r="N25" t="str">
         <v/>
@@ -1519,28 +1519,28 @@
         <v/>
       </c>
       <c r="F26">
-        <v>123.63636363636364</v>
+        <v>43.63636363636363</v>
       </c>
       <c r="G26">
-        <v>2.547534969347554</v>
+        <v>9.66450162379651</v>
       </c>
       <c r="H26" t="str">
         <v/>
       </c>
       <c r="I26">
-        <v>1.2178089582895726</v>
+        <v>-4.832250811898255</v>
       </c>
       <c r="J26" t="str">
         <v/>
       </c>
       <c r="K26">
-        <v>-1.273767484673777</v>
+        <v>7.701026232948607</v>
       </c>
       <c r="L26" t="str">
         <v/>
       </c>
       <c r="M26">
-        <v>-1.071777141969608</v>
+        <v>-4.625421801625611</v>
       </c>
       <c r="N26" t="str">
         <v/>
@@ -1563,28 +1563,28 @@
         <v/>
       </c>
       <c r="F27">
-        <v>128.78787878787878</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="G27">
-        <v>2.3379339852562757</v>
+        <v>9.376030782804706</v>
       </c>
       <c r="H27" t="str">
         <v/>
       </c>
       <c r="I27">
-        <v>1.7389629037440841</v>
+        <v>-4.688015391402353</v>
       </c>
       <c r="J27" t="str">
         <v/>
       </c>
       <c r="K27">
-        <v>-1.1689669926281379</v>
+        <v>9.864405760633256</v>
       </c>
       <c r="L27" t="str">
         <v/>
       </c>
       <c r="M27">
-        <v>-1.061461213223895</v>
+        <v>-4.570595547946233</v>
       </c>
       <c r="N27" t="str">
         <v/>
@@ -1607,28 +1607,28 @@
         <v/>
       </c>
       <c r="F28">
-        <v>133.93939393939394</v>
+        <v>47.27272727272727</v>
       </c>
       <c r="G28">
-        <v>2.145578131481415</v>
+        <v>9.096170362643878</v>
       </c>
       <c r="H28" t="str">
         <v/>
       </c>
       <c r="I28">
-        <v>2.274513412017032</v>
+        <v>-4.548085181321939</v>
       </c>
       <c r="J28" t="str">
         <v/>
       </c>
       <c r="K28">
-        <v>-1.0727890657407075</v>
+        <v>8.190849118201058</v>
       </c>
       <c r="L28" t="str">
         <v/>
       </c>
       <c r="M28">
-        <v>-1.133098111018311</v>
+        <v>-4.370001230293581</v>
       </c>
       <c r="N28" t="str">
         <v/>
@@ -1651,28 +1651,28 @@
         <v/>
       </c>
       <c r="F29">
-        <v>139.0909090909091</v>
+        <v>49.09090909090909</v>
       </c>
       <c r="G29">
-        <v>1.9690485477016844</v>
+        <v>8.824663355199679</v>
       </c>
       <c r="H29" t="str">
         <v/>
       </c>
       <c r="I29">
-        <v>2.4867392717979873</v>
+        <v>-4.412331677599839</v>
       </c>
       <c r="J29" t="str">
         <v/>
       </c>
       <c r="K29">
-        <v>-0.9845242738508422</v>
+        <v>9.197991535708782</v>
       </c>
       <c r="L29" t="str">
         <v/>
       </c>
       <c r="M29">
-        <v>-0.7739423788611083</v>
+        <v>-4.824574952374878</v>
       </c>
       <c r="N29" t="str">
         <v/>
@@ -1695,28 +1695,28 @@
         <v/>
       </c>
       <c r="F30">
-        <v>144.24242424242425</v>
+        <v>50.90909090909091</v>
       </c>
       <c r="G30">
-        <v>1.8070431117458923</v>
+        <v>8.56126042366352</v>
       </c>
       <c r="H30" t="str">
         <v/>
       </c>
       <c r="I30">
-        <v>1.4516508443654794</v>
+        <v>-4.28063021183176</v>
       </c>
       <c r="J30" t="str">
         <v/>
       </c>
       <c r="K30">
-        <v>-0.9035215558729461</v>
+        <v>7.4027009888655755</v>
       </c>
       <c r="L30" t="str">
         <v/>
       </c>
       <c r="M30">
-        <v>-0.7794557726167604</v>
+        <v>-4.028872679812527</v>
       </c>
       <c r="N30" t="str">
         <v/>
@@ -1739,28 +1739,28 @@
         <v/>
       </c>
       <c r="F31">
-        <v>149.3939393939394</v>
+        <v>52.72727272727273</v>
       </c>
       <c r="G31">
-        <v>1.658366834845046</v>
+        <v>8.305719673555611</v>
       </c>
       <c r="H31" t="str">
         <v/>
       </c>
       <c r="I31">
-        <v>1.9199534677893335</v>
+        <v>-4.152859836777806</v>
       </c>
       <c r="J31" t="str">
         <v/>
       </c>
       <c r="K31">
-        <v>-0.829183417422523</v>
+        <v>8.70181956519318</v>
       </c>
       <c r="L31" t="str">
         <v/>
       </c>
       <c r="M31">
-        <v>-0.8276215979566822</v>
+        <v>-4.024222733094172</v>
       </c>
       <c r="N31" t="str">
         <v/>
@@ -1783,28 +1783,28 @@
         <v/>
       </c>
       <c r="F32">
-        <v>154.54545454545453</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="G32">
-        <v>1.5219230471246825</v>
+        <v>8.05780643058266</v>
       </c>
       <c r="H32" t="str">
         <v/>
       </c>
       <c r="I32">
-        <v>1.9470172656633804</v>
+        <v>-4.02890321529133</v>
       </c>
       <c r="J32" t="str">
         <v/>
       </c>
       <c r="K32">
-        <v>-0.7609615235623413</v>
+        <v>7.172621273172163</v>
       </c>
       <c r="L32" t="str">
         <v/>
       </c>
       <c r="M32">
-        <v>-0.609758823928554</v>
+        <v>-4.166632088976766</v>
       </c>
       <c r="N32" t="str">
         <v/>
@@ -1827,28 +1827,28 @@
         <v/>
       </c>
       <c r="F33">
-        <v>159.6969696969697</v>
+        <v>56.36363636363637</v>
       </c>
       <c r="G33">
-        <v>1.3967053083196177</v>
+        <v>7.817293025126143</v>
       </c>
       <c r="H33" t="str">
         <v/>
       </c>
       <c r="I33">
-        <v>2.3259205724893626</v>
+        <v>-3.9086465125630716</v>
       </c>
       <c r="J33" t="str">
         <v/>
       </c>
       <c r="K33">
-        <v>-0.6983526541598088</v>
+        <v>5.070934907142483</v>
       </c>
       <c r="L33" t="str">
         <v/>
       </c>
       <c r="M33">
-        <v>-0.7021383026790334</v>
+        <v>-3.7668876100037365</v>
       </c>
       <c r="N33" t="str">
         <v/>
@@ -1871,28 +1871,28 @@
         <v/>
       </c>
       <c r="F34">
-        <v>164.84848484848484</v>
+        <v>58.18181818181818</v>
       </c>
       <c r="G34">
-        <v>1.2817899840427223</v>
+        <v>7.583958583163307</v>
       </c>
       <c r="H34" t="str">
         <v/>
       </c>
       <c r="I34">
-        <v>2.300605886039907</v>
+        <v>-3.7919792915816535</v>
       </c>
       <c r="J34" t="str">
         <v/>
       </c>
       <c r="K34">
-        <v>-0.6408949920213611</v>
+        <v>5.350998851906089</v>
       </c>
       <c r="L34" t="str">
         <v/>
       </c>
       <c r="M34">
-        <v>-0.35630975453918484</v>
+        <v>-3.7800574401129943</v>
       </c>
       <c r="N34" t="str">
         <v/>
@@ -1915,28 +1915,28 @@
         <v/>
       </c>
       <c r="F35">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="G35">
-        <v>1.1763294328485976</v>
+        <v>7.357588823428847</v>
       </c>
       <c r="H35" t="str">
         <v/>
       </c>
       <c r="I35">
-        <v>1.3585384375035938</v>
+        <v>-3.6787944117144233</v>
       </c>
       <c r="J35" t="str">
         <v/>
       </c>
       <c r="K35">
-        <v>-0.5881647164242988</v>
+        <v>6.994514415344246</v>
       </c>
       <c r="L35" t="str">
         <v/>
       </c>
       <c r="M35">
-        <v>-0.37754655475401744</v>
+        <v>-3.8239563900282727</v>
       </c>
       <c r="N35" t="str">
         <v/>
@@ -1959,28 +1959,28 @@
         <v/>
       </c>
       <c r="F36">
-        <v>175.15151515151516</v>
+        <v>61.81818181818182</v>
       </c>
       <c r="G36">
-        <v>1.0795457538383946</v>
+        <v>7.137975860631015</v>
       </c>
       <c r="H36" t="str">
         <v/>
       </c>
       <c r="I36">
-        <v>0.2879593904584683</v>
+        <v>-3.5689879303155077</v>
       </c>
       <c r="J36" t="str">
         <v/>
       </c>
       <c r="K36">
-        <v>-0.5397728769191973</v>
+        <v>7.1068252099978695</v>
       </c>
       <c r="L36" t="str">
         <v/>
       </c>
       <c r="M36">
-        <v>-0.4207681306365407</v>
+        <v>-3.1334693109717198</v>
       </c>
       <c r="N36" t="str">
         <v/>
@@ -2003,28 +2003,28 @@
         <v/>
       </c>
       <c r="F37">
-        <v>180.3030303030303</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="G37">
-        <v>0.9907250486866845</v>
+        <v>6.924918014541427</v>
       </c>
       <c r="H37" t="str">
         <v/>
       </c>
       <c r="I37">
-        <v>0.6952515074456762</v>
+        <v>-3.4624590072707133</v>
       </c>
       <c r="J37" t="str">
         <v/>
       </c>
       <c r="K37">
-        <v>-0.49536252434334227</v>
+        <v>7.644113106017704</v>
       </c>
       <c r="L37" t="str">
         <v/>
       </c>
       <c r="M37">
-        <v>-0.378356353324587</v>
+        <v>-3.1519771618966077</v>
       </c>
       <c r="N37" t="str">
         <v/>
@@ -2047,28 +2047,28 @@
         <v/>
       </c>
       <c r="F38">
-        <v>185.45454545454547</v>
+        <v>65.45454545454545</v>
       </c>
       <c r="G38">
-        <v>0.9092121557658104</v>
+        <v>6.718219624783249</v>
       </c>
       <c r="H38" t="str">
         <v/>
       </c>
       <c r="I38">
-        <v>1.317927517335283</v>
+        <v>-3.3591098123916243</v>
       </c>
       <c r="J38" t="str">
         <v/>
       </c>
       <c r="K38">
-        <v>-0.4546060778829052</v>
+        <v>7.093501764989231</v>
       </c>
       <c r="L38" t="str">
         <v/>
       </c>
       <c r="M38">
-        <v>-0.15995274434138823</v>
+        <v>-3.590175143938295</v>
       </c>
       <c r="N38" t="str">
         <v/>
@@ -2091,28 +2091,28 @@
         <v/>
       </c>
       <c r="F39">
-        <v>190.6060606060606</v>
+        <v>67.27272727272727</v>
       </c>
       <c r="G39">
-        <v>0.8344058175254082</v>
+        <v>6.517690871147678</v>
       </c>
       <c r="H39" t="str">
         <v/>
       </c>
       <c r="I39">
-        <v>1.207074100125157</v>
+        <v>-3.258845435573839</v>
       </c>
       <c r="J39" t="str">
         <v/>
       </c>
       <c r="K39">
-        <v>-0.4172029087627041</v>
+        <v>10.252927102889338</v>
       </c>
       <c r="L39" t="str">
         <v/>
       </c>
       <c r="M39">
-        <v>-0.4913139073840658</v>
+        <v>-3.1468374667390826</v>
       </c>
       <c r="N39" t="str">
         <v/>
@@ -2135,28 +2135,28 @@
         <v/>
       </c>
       <c r="F40">
-        <v>195.75757575757575</v>
+        <v>69.0909090909091</v>
       </c>
       <c r="G40">
-        <v>0.765754245480607</v>
+        <v>6.323147599273718</v>
       </c>
       <c r="H40" t="str">
         <v/>
       </c>
       <c r="I40">
-        <v>0.7587753390285863</v>
+        <v>-3.161573799636859</v>
       </c>
       <c r="J40" t="str">
         <v/>
       </c>
       <c r="K40">
-        <v>-0.3828771227403035</v>
+        <v>6.512736362044061</v>
       </c>
       <c r="L40" t="str">
         <v/>
       </c>
       <c r="M40">
-        <v>-0.10466198587545811</v>
+        <v>-3.2546443301040613</v>
       </c>
       <c r="N40" t="str">
         <v/>
@@ -2179,28 +2179,28 @@
         <v/>
       </c>
       <c r="F41">
-        <v>200.9090909090909</v>
+        <v>70.9090909090909</v>
       </c>
       <c r="G41">
-        <v>0.702751050095259</v>
+        <v>6.134411151531135</v>
       </c>
       <c r="H41" t="str">
         <v/>
       </c>
       <c r="I41">
-        <v>0.4550728061644551</v>
+        <v>-3.0672055757655676</v>
       </c>
       <c r="J41" t="str">
         <v/>
       </c>
       <c r="K41">
-        <v>-0.3513755250476295</v>
+        <v>5.386878085335355</v>
       </c>
       <c r="L41" t="str">
         <v/>
       </c>
       <c r="M41">
-        <v>-0.38423223432361453</v>
+        <v>-2.7996953316300144</v>
       </c>
       <c r="N41" t="str">
         <v/>
@@ -2223,28 +2223,28 @@
         <v/>
       </c>
       <c r="F42">
-        <v>206.06060606060606</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="G42">
-        <v>0.6449315055380866</v>
+        <v>5.9513082029513065</v>
       </c>
       <c r="H42" t="str">
         <v/>
       </c>
       <c r="I42">
-        <v>0.6419980306789702</v>
+        <v>-2.9756541014756532</v>
       </c>
       <c r="J42" t="str">
         <v/>
       </c>
       <c r="K42">
-        <v>-0.3224657527690433</v>
+        <v>3.8825451615411963</v>
       </c>
       <c r="L42" t="str">
         <v/>
       </c>
       <c r="M42">
-        <v>-0.22905440416297101</v>
+        <v>-2.6782386927373105</v>
       </c>
       <c r="N42" t="str">
         <v/>
@@ -2267,28 +2267,28 @@
         <v/>
       </c>
       <c r="F43">
-        <v>211.21212121212122</v>
+        <v>74.54545454545455</v>
       </c>
       <c r="G43">
-        <v>0.5918691217597499</v>
+        <v>5.7736706020553</v>
       </c>
       <c r="H43" t="str">
         <v/>
       </c>
       <c r="I43">
-        <v>0.422284123224499</v>
+        <v>-2.88683530102765</v>
       </c>
       <c r="J43" t="str">
         <v/>
       </c>
       <c r="K43">
-        <v>-0.29593456087987496</v>
+        <v>8.643337283005355</v>
       </c>
       <c r="L43" t="str">
         <v/>
       </c>
       <c r="M43">
-        <v>-0.36837936009622174</v>
+        <v>-3.060871182049547</v>
       </c>
       <c r="N43" t="str">
         <v/>
@@ -2311,28 +2311,28 @@
         <v/>
       </c>
       <c r="F44">
-        <v>216.36363636363637</v>
+        <v>76.36363636363636</v>
       </c>
       <c r="G44">
-        <v>0.5431724986056988</v>
+        <v>5.601335216432978</v>
       </c>
       <c r="H44" t="str">
         <v/>
       </c>
       <c r="I44">
-        <v>0.02771109210243683</v>
+        <v>-2.800667608216489</v>
       </c>
       <c r="J44" t="str">
         <v/>
       </c>
       <c r="K44">
-        <v>-0.2715862493028494</v>
+        <v>4.709092005083518</v>
       </c>
       <c r="L44" t="str">
         <v/>
       </c>
       <c r="M44">
-        <v>-0.23623726036706424</v>
+        <v>-2.7766975937423735</v>
       </c>
       <c r="N44" t="str">
         <v/>
@@ -2355,28 +2355,28 @@
         <v/>
       </c>
       <c r="F45">
-        <v>221.5151515151515</v>
+        <v>78.18181818181819</v>
       </c>
       <c r="G45">
-        <v>0.4984824387600315</v>
+        <v>5.434143782931341</v>
       </c>
       <c r="H45" t="str">
         <v/>
       </c>
       <c r="I45">
-        <v>1.0949869620170527</v>
+        <v>-2.7170718914656704</v>
       </c>
       <c r="J45" t="str">
         <v/>
       </c>
       <c r="K45">
-        <v>-0.24924121938001575</v>
+        <v>3.9201386005390257</v>
       </c>
       <c r="L45" t="str">
         <v/>
       </c>
       <c r="M45">
-        <v>-0.0018831166190590443</v>
+        <v>-2.5702936890154238</v>
       </c>
       <c r="N45" t="str">
         <v/>
@@ -2399,28 +2399,28 @@
         <v/>
       </c>
       <c r="F46">
-        <v>226.66666666666666</v>
+        <v>80</v>
       </c>
       <c r="G46">
-        <v>0.4574692982247782</v>
+        <v>5.271942762314535</v>
       </c>
       <c r="H46" t="str">
         <v/>
       </c>
       <c r="I46">
-        <v>-0.32872150360706043</v>
+        <v>-2.6359713811572676</v>
       </c>
       <c r="J46" t="str">
         <v/>
       </c>
       <c r="K46">
-        <v>-0.2287346491123891</v>
+        <v>4.983509315430856</v>
       </c>
       <c r="L46" t="str">
         <v/>
       </c>
       <c r="M46">
-        <v>-0.1408403600286094</v>
+        <v>-2.9045783632287714</v>
       </c>
       <c r="N46" t="str">
         <v/>
@@ -2443,28 +2443,28 @@
         <v/>
       </c>
       <c r="F47">
-        <v>231.8181818181818</v>
+        <v>81.81818181818181</v>
       </c>
       <c r="G47">
-        <v>0.41983055479115317</v>
+        <v>5.114583198262013</v>
       </c>
       <c r="H47" t="str">
         <v/>
       </c>
       <c r="I47">
-        <v>0.6362280169376316</v>
+        <v>-2.5572915991310063</v>
       </c>
       <c r="J47" t="str">
         <v/>
       </c>
       <c r="K47">
-        <v>-0.20991527739557658</v>
+        <v>3.874558312890759</v>
       </c>
       <c r="L47" t="str">
         <v/>
       </c>
       <c r="M47">
-        <v>-0.024218984453963116</v>
+        <v>-2.8669630986953973</v>
       </c>
       <c r="N47" t="str">
         <v/>
@@ -2487,28 +2487,28 @@
         <v/>
       </c>
       <c r="F48">
-        <v>236.96969696969697</v>
+        <v>83.63636363636364</v>
       </c>
       <c r="G48">
-        <v>0.3852885765672586</v>
+        <v>4.961920580575411</v>
       </c>
       <c r="H48" t="str">
         <v/>
       </c>
       <c r="I48">
-        <v>0.7116771313692241</v>
+        <v>-2.4809602902877055</v>
       </c>
       <c r="J48" t="str">
         <v/>
       </c>
       <c r="K48">
-        <v>-0.1926442882836293</v>
+        <v>5.453605189117391</v>
       </c>
       <c r="L48" t="str">
         <v/>
       </c>
       <c r="M48">
-        <v>-0.18166676880497554</v>
+        <v>-2.7558983815726243</v>
       </c>
       <c r="N48" t="str">
         <v/>
@@ -2531,28 +2531,28 @@
         <v/>
       </c>
       <c r="F49">
-        <v>242.12121212121212</v>
+        <v>85.45454545454545</v>
       </c>
       <c r="G49">
-        <v>0.3535885741024021</v>
+        <v>4.81381471246849</v>
       </c>
       <c r="H49" t="str">
         <v/>
       </c>
       <c r="I49">
-        <v>0.13392764950270197</v>
+        <v>-2.406907356234245</v>
       </c>
       <c r="J49" t="str">
         <v/>
       </c>
       <c r="K49">
-        <v>-0.17679428705120104</v>
+        <v>5.51916938703844</v>
       </c>
       <c r="L49" t="str">
         <v/>
       </c>
       <c r="M49">
-        <v>-0.32380620582978026</v>
+        <v>-2.642323175578331</v>
       </c>
       <c r="N49" t="str">
         <v/>
@@ -2575,28 +2575,28 @@
         <v/>
       </c>
       <c r="F50">
-        <v>247.27272727272728</v>
+        <v>87.27272727272727</v>
       </c>
       <c r="G50">
-        <v>0.32449672100243215</v>
+        <v>4.670129581818268</v>
       </c>
       <c r="H50" t="str">
         <v/>
       </c>
       <c r="I50">
-        <v>0.17601680387325622</v>
+        <v>-2.335064790909134</v>
       </c>
       <c r="J50" t="str">
         <v/>
       </c>
       <c r="K50">
-        <v>-0.16224836050121608</v>
+        <v>4.882957644925036</v>
       </c>
       <c r="L50" t="str">
         <v/>
       </c>
       <c r="M50">
-        <v>0.20662855319693682</v>
+        <v>-2.582646265651825</v>
       </c>
       <c r="N50" t="str">
         <v/>
@@ -2619,28 +2619,28 @@
         <v/>
       </c>
       <c r="F51">
-        <v>252.42424242424244</v>
+        <v>89.0909090909091</v>
       </c>
       <c r="G51">
-        <v>0.29779842917332233</v>
+        <v>4.530733236259107</v>
       </c>
       <c r="H51" t="str">
         <v/>
       </c>
       <c r="I51">
-        <v>0.03537295655108619</v>
+        <v>-2.2653666181295535</v>
       </c>
       <c r="J51" t="str">
         <v/>
       </c>
       <c r="K51">
-        <v>-0.14889921458666117</v>
+        <v>4.433588865224222</v>
       </c>
       <c r="L51" t="str">
         <v/>
       </c>
       <c r="M51">
-        <v>-0.22039769159450479</v>
+        <v>-1.7911639106470882</v>
       </c>
       <c r="N51" t="str">
         <v/>
@@ -2663,28 +2663,28 @@
         <v/>
       </c>
       <c r="F52">
-        <v>257.57575757575756</v>
+        <v>90.9090909090909</v>
       </c>
       <c r="G52">
-        <v>0.2732967659708146</v>
+        <v>4.395497662005072</v>
       </c>
       <c r="H52" t="str">
         <v/>
       </c>
       <c r="I52">
-        <v>-0.13597867648778034</v>
+        <v>-2.197748831002536</v>
       </c>
       <c r="J52" t="str">
         <v/>
       </c>
       <c r="K52">
-        <v>-0.1366483829854073</v>
+        <v>5.410145288728431</v>
       </c>
       <c r="L52" t="str">
         <v/>
       </c>
       <c r="M52">
-        <v>-0.08176040853482132</v>
+        <v>-2.370882050515379</v>
       </c>
       <c r="N52" t="str">
         <v/>
@@ -2707,28 +2707,28 @@
         <v/>
       </c>
       <c r="F53">
-        <v>262.72727272727275</v>
+        <v>92.72727272727273</v>
       </c>
       <c r="G53">
-        <v>0.25081100158065284</v>
+        <v>4.264298666289242</v>
       </c>
       <c r="H53" t="str">
         <v/>
       </c>
       <c r="I53">
-        <v>0.19521626176863568</v>
+        <v>-2.132149333144621</v>
       </c>
       <c r="J53" t="str">
         <v/>
       </c>
       <c r="K53">
-        <v>-0.12540550079032642</v>
+        <v>5.786730119633422</v>
       </c>
       <c r="L53" t="str">
         <v/>
       </c>
       <c r="M53">
-        <v>0.43089799694290787</v>
+        <v>-1.6968840770163087</v>
       </c>
       <c r="N53" t="str">
         <v/>
@@ -2751,28 +2751,28 @@
         <v/>
       </c>
       <c r="F54">
-        <v>267.8787878787879</v>
+        <v>94.54545454545455</v>
       </c>
       <c r="G54">
-        <v>0.23017527591456405</v>
+        <v>4.137015763312043</v>
       </c>
       <c r="H54" t="str">
         <v/>
       </c>
       <c r="I54">
-        <v>-0.3023706825106552</v>
+        <v>-2.0685078816560214</v>
       </c>
       <c r="J54" t="str">
         <v/>
       </c>
       <c r="K54">
-        <v>-0.11508763795728202</v>
+        <v>4.72814946825805</v>
       </c>
       <c r="L54" t="str">
         <v/>
       </c>
       <c r="M54">
-        <v>0.1685680829193659</v>
+        <v>-2.305068787117396</v>
       </c>
       <c r="N54" t="str">
         <v/>
@@ -2795,28 +2795,28 @@
         <v/>
       </c>
       <c r="F55">
-        <v>273.030303030303</v>
+        <v>96.36363636363636</v>
       </c>
       <c r="G55">
-        <v>0.2112373751886988</v>
+        <v>4.013532063593841</v>
       </c>
       <c r="H55" t="str">
         <v/>
       </c>
       <c r="I55">
-        <v>0.00025425182671554025</v>
+        <v>-2.0067660317969205</v>
       </c>
       <c r="J55" t="str">
         <v/>
       </c>
       <c r="K55">
-        <v>-0.1056186875943494</v>
+        <v>4.356270069451197</v>
       </c>
       <c r="L55" t="str">
         <v/>
       </c>
       <c r="M55">
-        <v>-0.07811967562438737</v>
+        <v>-1.9276772869287468</v>
       </c>
       <c r="N55" t="str">
         <v/>
@@ -2839,28 +2839,28 @@
         <v/>
       </c>
       <c r="F56">
-        <v>278.1818181818182</v>
+        <v>98.18181818181819</v>
       </c>
       <c r="G56">
-        <v>0.1938576091603056</v>
+        <v>3.8937341666302028</v>
       </c>
       <c r="H56" t="str">
         <v/>
       </c>
       <c r="I56">
-        <v>1.1697208286730096</v>
+        <v>-1.9468670833151014</v>
       </c>
       <c r="J56" t="str">
         <v/>
       </c>
       <c r="K56">
-        <v>-0.0969288045801528</v>
+        <v>5.349498398475925</v>
       </c>
       <c r="L56" t="str">
         <v/>
       </c>
       <c r="M56">
-        <v>-0.2440112189590339</v>
+        <v>-1.884488652200973</v>
       </c>
       <c r="N56" t="str">
         <v/>
@@ -2883,28 +2883,28 @@
         <v/>
       </c>
       <c r="F57">
-        <v>283.3333333333333</v>
+        <v>100</v>
       </c>
       <c r="G57">
-        <v>0.1779077807408791</v>
+        <v>3.7775120567512364</v>
       </c>
       <c r="H57" t="str">
         <v/>
       </c>
       <c r="I57">
-        <v>-0.38269196962567464</v>
+        <v>-1.8887560283756182</v>
       </c>
       <c r="J57" t="str">
         <v/>
       </c>
       <c r="K57">
-        <v>-0.08895389037043955</v>
+        <v>3.358762924603691</v>
       </c>
       <c r="L57" t="str">
         <v/>
       </c>
       <c r="M57">
-        <v>-0.37944812068730643</v>
+        <v>-1.730234386316416</v>
       </c>
       <c r="N57" t="str">
         <v/>
@@ -2927,28 +2927,28 @@
         <v/>
       </c>
       <c r="F58">
-        <v>288.4848484848485</v>
+        <v>101.81818181818181</v>
       </c>
       <c r="G58">
-        <v>0.16327024038541388</v>
+        <v>3.6647590020893626</v>
       </c>
       <c r="H58" t="str">
         <v/>
       </c>
       <c r="I58">
-        <v>0.08960259716886947</v>
+        <v>-1.8323795010446813</v>
       </c>
       <c r="J58" t="str">
         <v/>
       </c>
       <c r="K58">
-        <v>-0.08163512019270694</v>
+        <v>2.4550993102256284</v>
       </c>
       <c r="L58" t="str">
         <v/>
       </c>
       <c r="M58">
-        <v>0.1905142427009138</v>
+        <v>-1.9354464450914028</v>
       </c>
       <c r="N58" t="str">
         <v/>
@@ -2971,28 +2971,28 @@
         <v/>
       </c>
       <c r="F59">
-        <v>293.6363636363636</v>
+        <v>103.63636363636364</v>
       </c>
       <c r="G59">
-        <v>0.14983701828272897</v>
+        <v>3.5553714565627565</v>
       </c>
       <c r="H59" t="str">
         <v/>
       </c>
       <c r="I59">
-        <v>-0.5784589983992656</v>
+        <v>-1.7776857282813783</v>
       </c>
       <c r="J59" t="str">
         <v/>
       </c>
       <c r="K59">
-        <v>-0.07491850914136448</v>
+        <v>4.44239241496084</v>
       </c>
       <c r="L59" t="str">
         <v/>
       </c>
       <c r="M59">
-        <v>-0.06178323568338763</v>
+        <v>-2.1507605262384892</v>
       </c>
       <c r="N59" t="str">
         <v/>
@@ -3015,28 +3015,28 @@
         <v/>
       </c>
       <c r="F60">
-        <v>298.7878787878788</v>
+        <v>105.45454545454545</v>
       </c>
       <c r="G60">
-        <v>0.13750902794569875</v>
+        <v>3.449248964784436</v>
       </c>
       <c r="H60" t="str">
         <v/>
       </c>
       <c r="I60">
-        <v>-0.17639050720773197</v>
+        <v>-1.724624482392218</v>
       </c>
       <c r="J60" t="str">
         <v/>
       </c>
       <c r="K60">
-        <v>-0.06875451397284937</v>
+        <v>4.600795623236722</v>
       </c>
       <c r="L60" t="str">
         <v/>
       </c>
       <c r="M60">
-        <v>0.17194589156754045</v>
+        <v>-2.301103505308906</v>
       </c>
       <c r="N60" t="str">
         <v/>
@@ -3059,28 +3059,28 @@
         <v/>
       </c>
       <c r="F61">
-        <v>303.93939393939394</v>
+        <v>107.27272727272727</v>
       </c>
       <c r="G61">
-        <v>0.12619533532689434</v>
+        <v>3.3462940698096655</v>
       </c>
       <c r="H61" t="str">
         <v/>
       </c>
       <c r="I61">
-        <v>0.12410773897280504</v>
+        <v>-1.6731470349048327</v>
       </c>
       <c r="J61" t="str">
         <v/>
       </c>
       <c r="K61">
-        <v>-0.06309766766344717</v>
+        <v>2.9610891636362533</v>
       </c>
       <c r="L61" t="str">
         <v/>
       </c>
       <c r="M61">
-        <v>-0.2661646804932141</v>
+        <v>-1.3922922775631026</v>
       </c>
       <c r="N61" t="str">
         <v/>
@@ -3103,28 +3103,28 @@
         <v/>
       </c>
       <c r="F62">
-        <v>309.09090909090907</v>
+        <v>109.0909090909091</v>
       </c>
       <c r="G62">
-        <v>0.1158124880684639</v>
+        <v>3.2464122236369635</v>
       </c>
       <c r="H62" t="str">
         <v/>
       </c>
       <c r="I62">
-        <v>0.27231392077716565</v>
+        <v>-1.6232061118184817</v>
       </c>
       <c r="J62" t="str">
         <v/>
       </c>
       <c r="K62">
-        <v>-0.05790624403423195</v>
+        <v>2.702617068195649</v>
       </c>
       <c r="L62" t="str">
         <v/>
       </c>
       <c r="M62">
-        <v>-0.06074629222326341</v>
+        <v>-1.3910356168851905</v>
       </c>
       <c r="N62" t="str">
         <v/>
@@ -3147,28 +3147,28 @@
         <v/>
       </c>
       <c r="F63">
-        <v>314.24242424242425</v>
+        <v>110.9090909090909</v>
       </c>
       <c r="G63">
-        <v>0.10628389993865048</v>
+        <v>3.1495117003805206</v>
       </c>
       <c r="H63" t="str">
         <v/>
       </c>
       <c r="I63">
-        <v>0.663226841706056</v>
+        <v>-1.5747558501902603</v>
       </c>
       <c r="J63" t="str">
         <v/>
       </c>
       <c r="K63">
-        <v>-0.05314194996932524</v>
+        <v>0.0892097102989382</v>
       </c>
       <c r="L63" t="str">
         <v/>
       </c>
       <c r="M63">
-        <v>-0.17475178448890055</v>
+        <v>-1.3865063104945505</v>
       </c>
       <c r="N63" t="str">
         <v/>
@@ -3191,28 +3191,28 @@
         <v/>
       </c>
       <c r="F64">
-        <v>319.3939393939394</v>
+        <v>112.72727272727273</v>
       </c>
       <c r="G64">
-        <v>0.09753928591440991</v>
+        <v>3.055503512034292</v>
       </c>
       <c r="H64" t="str">
         <v/>
       </c>
       <c r="I64">
-        <v>0.44273194514164416</v>
+        <v>-1.527751756017146</v>
       </c>
       <c r="J64" t="str">
         <v/>
       </c>
       <c r="K64">
-        <v>-0.048769642957204956</v>
+        <v>2.6829279328735542</v>
       </c>
       <c r="L64" t="str">
         <v/>
       </c>
       <c r="M64">
-        <v>0.07344497257278057</v>
+        <v>-1.622047202494414</v>
       </c>
       <c r="N64" t="str">
         <v/>
@@ -3235,28 +3235,28 @@
         <v/>
       </c>
       <c r="F65">
-        <v>324.54545454545456</v>
+        <v>114.54545454545455</v>
       </c>
       <c r="G65">
-        <v>0.08951414374316936</v>
+        <v>2.964301326750403</v>
       </c>
       <c r="H65" t="str">
         <v/>
       </c>
       <c r="I65">
-        <v>-0.1410343478094746</v>
+        <v>-1.4821506633752015</v>
       </c>
       <c r="J65" t="str">
         <v/>
       </c>
       <c r="K65">
-        <v>-0.04475707187158468</v>
+        <v>1.834875463369895</v>
       </c>
       <c r="L65" t="str">
         <v/>
       </c>
       <c r="M65">
-        <v>-0.06597974156122943</v>
+        <v>-1.6652158063746314</v>
       </c>
       <c r="N65" t="str">
         <v/>
@@ -3279,28 +3279,28 @@
         <v/>
       </c>
       <c r="F66">
-        <v>329.6969696969697</v>
+        <v>116.36363636363636</v>
       </c>
       <c r="G66">
-        <v>0.0821492781596121</v>
+        <v>2.87582138955682</v>
       </c>
       <c r="H66" t="str">
         <v/>
       </c>
       <c r="I66">
-        <v>0.6051629946756314</v>
+        <v>-1.43791069477841</v>
       </c>
       <c r="J66" t="str">
         <v/>
       </c>
       <c r="K66">
-        <v>-0.04107463907980605</v>
+        <v>2.1071691231319636</v>
       </c>
       <c r="L66" t="str">
         <v/>
       </c>
       <c r="M66">
-        <v>-0.3688037508445321</v>
+        <v>-1.348232214217789</v>
       </c>
       <c r="N66" t="str">
         <v/>
@@ -3323,28 +3323,28 @@
         <v/>
       </c>
       <c r="F67">
-        <v>334.8484848484849</v>
+        <v>118.18181818181819</v>
       </c>
       <c r="G67">
-        <v>0.07539036424799939</v>
+        <v>2.7899824454414808</v>
       </c>
       <c r="H67" t="str">
         <v/>
       </c>
       <c r="I67">
-        <v>-0.8048580753137909</v>
+        <v>-1.3949912227207404</v>
       </c>
       <c r="J67" t="str">
         <v/>
       </c>
       <c r="K67">
-        <v>-0.03769518212399969</v>
+        <v>2.6615346664310104</v>
       </c>
       <c r="L67" t="str">
         <v/>
       </c>
       <c r="M67">
-        <v>0.051776844784327564</v>
+        <v>-1.1501188843586174</v>
       </c>
       <c r="N67" t="str">
         <v/>
@@ -3367,28 +3367,28 @@
         <v/>
       </c>
       <c r="F68">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="G68">
-        <v>0.06918754672929517</v>
+        <v>2.706705664732254</v>
       </c>
       <c r="H68" t="str">
         <v/>
       </c>
       <c r="I68">
-        <v>0.5743601833541022</v>
+        <v>-1.353352832366127</v>
       </c>
       <c r="J68" t="str">
         <v/>
       </c>
       <c r="K68">
-        <v>-0.034593773364647584</v>
+        <v>-0.02789833524217089</v>
       </c>
       <c r="L68" t="str">
         <v/>
       </c>
       <c r="M68">
-        <v>0.059363833312836026</v>
+        <v>-0.6627067060566585</v>
       </c>
       <c r="N68" t="str">
         <v/>
@@ -3411,28 +3411,28 @@
         <v/>
       </c>
       <c r="F69">
-        <v>345.1515151515151</v>
+        <v>121.81818181818181</v>
       </c>
       <c r="G69">
-        <v>0.06349507221734157</v>
+        <v>2.6259145707041833</v>
       </c>
       <c r="H69" t="str">
         <v/>
       </c>
       <c r="I69">
-        <v>0.20592646179462257</v>
+        <v>-1.3129572853520917</v>
       </c>
       <c r="J69" t="str">
         <v/>
       </c>
       <c r="K69">
-        <v>-0.03174753610867079</v>
+        <v>2.837575617363673</v>
       </c>
       <c r="L69" t="str">
         <v/>
       </c>
       <c r="M69">
-        <v>-0.0493493436666963</v>
+        <v>-1.228003961136155</v>
       </c>
       <c r="N69" t="str">
         <v/>
@@ -3455,28 +3455,28 @@
         <v/>
       </c>
       <c r="F70">
-        <v>350.3030303030303</v>
+        <v>123.63636363636364</v>
       </c>
       <c r="G70">
-        <v>0.05827095173152537</v>
+        <v>2.547534969347554</v>
       </c>
       <c r="H70" t="str">
         <v/>
       </c>
       <c r="I70">
-        <v>0.06292888523481968</v>
+        <v>-1.273767484673777</v>
       </c>
       <c r="J70" t="str">
         <v/>
       </c>
       <c r="K70">
-        <v>-0.029135475865762685</v>
+        <v>2.419672231676227</v>
       </c>
       <c r="L70" t="str">
         <v/>
       </c>
       <c r="M70">
-        <v>0.13951555305659957</v>
+        <v>-1.4910093120223786</v>
       </c>
       <c r="N70" t="str">
         <v/>
@@ -3499,28 +3499,28 @@
         <v/>
       </c>
       <c r="F71">
-        <v>355.45454545454544</v>
+        <v>125.45454545454545</v>
       </c>
       <c r="G71">
-        <v>0.05347665097655237</v>
+        <v>2.471494881232278</v>
       </c>
       <c r="H71" t="str">
         <v/>
       </c>
       <c r="I71">
-        <v>-0.4032608699936902</v>
+        <v>-1.235747440616139</v>
       </c>
       <c r="J71" t="str">
         <v/>
       </c>
       <c r="K71">
-        <v>-0.026738325488276184</v>
+        <v>-0.04819841808981673</v>
       </c>
       <c r="L71" t="str">
         <v/>
       </c>
       <c r="M71">
-        <v>-0.3543905014270899</v>
+        <v>-0.8882438994871266</v>
       </c>
       <c r="N71" t="str">
         <v/>
@@ -3543,28 +3543,28 @@
         <v/>
       </c>
       <c r="F72">
-        <v>360.6060606060606</v>
+        <v>127.27272727272727</v>
       </c>
       <c r="G72">
-        <v>0.04907680610476167</v>
+        <v>2.3977244754060187</v>
       </c>
       <c r="H72" t="str">
         <v/>
       </c>
       <c r="I72">
-        <v>0.30738951776789647</v>
+        <v>-1.1988622377030094</v>
       </c>
       <c r="J72" t="str">
         <v/>
       </c>
       <c r="K72">
-        <v>-0.024538403052380836</v>
+        <v>4.697432102756806</v>
       </c>
       <c r="L72" t="str">
         <v/>
       </c>
       <c r="M72">
-        <v>-0.1280877143323237</v>
+        <v>-1.1994776487581182</v>
       </c>
       <c r="N72" t="str">
         <v/>
@@ -3587,28 +3587,28 @@
         <v/>
       </c>
       <c r="F73">
-        <v>365.75757575757575</v>
+        <v>129.0909090909091</v>
       </c>
       <c r="G73">
-        <v>0.04503896286438041</v>
+        <v>2.326156005265363</v>
       </c>
       <c r="H73" t="str">
         <v/>
       </c>
       <c r="I73">
-        <v>-0.28207532612339</v>
+        <v>-1.1630780026326815</v>
       </c>
       <c r="J73" t="str">
         <v/>
       </c>
       <c r="K73">
-        <v>-0.022519481432190205</v>
+        <v>4.093155991781231</v>
       </c>
       <c r="L73" t="str">
         <v/>
       </c>
       <c r="M73">
-        <v>-0.25366091173249905</v>
+        <v>-1.0879834304171472</v>
       </c>
       <c r="N73" t="str">
         <v/>
@@ -3631,28 +3631,28 @@
         <v/>
       </c>
       <c r="F74">
-        <v>370.90909090909093</v>
+        <v>130.9090909090909</v>
       </c>
       <c r="G74">
-        <v>0.04133333720961561</v>
+        <v>2.2567237463411383</v>
       </c>
       <c r="H74" t="str">
         <v/>
       </c>
       <c r="I74">
-        <v>-0.3314472276310738</v>
+        <v>-1.1283618731705691</v>
       </c>
       <c r="J74" t="str">
         <v/>
       </c>
       <c r="K74">
-        <v>-0.020666668604807804</v>
+        <v>4.420442239712936</v>
       </c>
       <c r="L74" t="str">
         <v/>
       </c>
       <c r="M74">
-        <v>-0.06956048187066922</v>
+        <v>-0.4283263015704636</v>
       </c>
       <c r="N74" t="str">
         <v/>
@@ -3675,28 +3675,28 @@
         <v/>
       </c>
       <c r="F75">
-        <v>376.06060606060606</v>
+        <v>132.72727272727272</v>
       </c>
       <c r="G75">
-        <v>0.037932595606790506</v>
+        <v>2.189363935940748</v>
       </c>
       <c r="H75" t="str">
         <v/>
       </c>
       <c r="I75">
-        <v>-0.27973882889458523</v>
+        <v>-1.094681967970374</v>
       </c>
       <c r="J75" t="str">
         <v/>
       </c>
       <c r="K75">
-        <v>-0.018966297803395253</v>
+        <v>1.6602899608125736</v>
       </c>
       <c r="L75" t="str">
         <v/>
       </c>
       <c r="M75">
-        <v>0.18545390035243153</v>
+        <v>-0.802320839092103</v>
       </c>
       <c r="N75" t="str">
         <v/>
@@ -3719,28 +3719,28 @@
         <v/>
       </c>
       <c r="F76">
-        <v>381.2121212121212</v>
+        <v>134.54545454545453</v>
       </c>
       <c r="G76">
-        <v>0.034811653416012237</v>
+        <v>2.1240147145920893</v>
       </c>
       <c r="H76" t="str">
         <v/>
       </c>
       <c r="I76">
-        <v>-0.5248547120192004</v>
+        <v>-1.0620073572960447</v>
       </c>
       <c r="J76" t="str">
         <v/>
       </c>
       <c r="K76">
-        <v>-0.017405826708006118</v>
+        <v>2.665077987995388</v>
       </c>
       <c r="L76" t="str">
         <v/>
       </c>
       <c r="M76">
-        <v>-0.02059756339229111</v>
+        <v>-0.892063168909274</v>
       </c>
       <c r="N76" t="str">
         <v/>
@@ -3763,28 +3763,28 @@
         <v/>
       </c>
       <c r="F77">
-        <v>386.3636363636364</v>
+        <v>136.36363636363637</v>
       </c>
       <c r="G77">
-        <v>0.031947489861189886</v>
+        <v>2.0606160692352833</v>
       </c>
       <c r="H77" t="str">
         <v/>
       </c>
       <c r="I77">
-        <v>0.8920663361594333</v>
+        <v>-1.0303080346176416</v>
       </c>
       <c r="J77" t="str">
         <v/>
       </c>
       <c r="K77">
-        <v>-0.015973744930594943</v>
+        <v>2.0178567529127855</v>
       </c>
       <c r="L77" t="str">
         <v/>
       </c>
       <c r="M77">
-        <v>0.13729170423091758</v>
+        <v>-1.196326789477873</v>
       </c>
       <c r="N77" t="str">
         <v/>
@@ -3807,28 +3807,28 @@
         <v/>
       </c>
       <c r="F78">
-        <v>391.5151515151515</v>
+        <v>138.1818181818182</v>
       </c>
       <c r="G78">
-        <v>0.029318978223578686</v>
+        <v>1.999109778110049</v>
       </c>
       <c r="H78" t="str">
         <v/>
       </c>
       <c r="I78">
-        <v>-0.48706904875077545</v>
+        <v>-0.9995548890550245</v>
       </c>
       <c r="J78" t="str">
         <v/>
       </c>
       <c r="K78">
-        <v>-0.014659489111789343</v>
+        <v>0.3510736899327229</v>
       </c>
       <c r="L78" t="str">
         <v/>
       </c>
       <c r="M78">
-        <v>0.14598290803220879</v>
+        <v>-1.03625074736569</v>
       </c>
       <c r="N78" t="str">
         <v/>
@@ -3851,28 +3851,28 @@
         <v/>
       </c>
       <c r="F79">
-        <v>396.6666666666667</v>
+        <v>140</v>
       </c>
       <c r="G79">
-        <v>0.026906730006319955</v>
+        <v>1.939439357288101</v>
       </c>
       <c r="H79" t="str">
         <v/>
       </c>
       <c r="I79">
-        <v>0.20705789703755992</v>
+        <v>-0.9697196786440505</v>
       </c>
       <c r="J79" t="str">
         <v/>
       </c>
       <c r="K79">
-        <v>-0.013453365003159978</v>
+        <v>4.043944763737556</v>
       </c>
       <c r="L79" t="str">
         <v/>
       </c>
       <c r="M79">
-        <v>-0.32415949088011436</v>
+        <v>-1.3767164625669073</v>
       </c>
       <c r="N79" t="str">
         <v/>
@@ -3895,28 +3895,28 @@
         <v/>
       </c>
       <c r="F80">
-        <v>401.8181818181818</v>
+        <v>141.8181818181818</v>
       </c>
       <c r="G80">
-        <v>0.02469295192049946</v>
+        <v>1.881550008801477</v>
       </c>
       <c r="H80" t="str">
         <v/>
       </c>
       <c r="I80">
-        <v>0.1588158201359135</v>
+        <v>-0.9407750044007385</v>
       </c>
       <c r="J80" t="str">
         <v/>
       </c>
       <c r="K80">
-        <v>-0.01234647596024973</v>
+        <v>2.971701111177439</v>
       </c>
       <c r="L80" t="str">
         <v/>
       </c>
       <c r="M80">
-        <v>0.021791635271342404</v>
+        <v>-0.8253209554740408</v>
       </c>
       <c r="N80" t="str">
         <v/>
@@ -3939,28 +3939,28 @@
         <v/>
       </c>
       <c r="F81">
-        <v>406.969696969697</v>
+        <v>143.63636363636363</v>
       </c>
       <c r="G81">
-        <v>0.02266131463782034</v>
+        <v>1.8253885703191615</v>
       </c>
       <c r="H81" t="str">
         <v/>
       </c>
       <c r="I81">
-        <v>0.3834698923080684</v>
+        <v>-0.9126942851595807</v>
       </c>
       <c r="J81" t="str">
         <v/>
       </c>
       <c r="K81">
-        <v>-0.01133065731891017</v>
+        <v>2.8201805791202026</v>
       </c>
       <c r="L81" t="str">
         <v/>
       </c>
       <c r="M81">
-        <v>0.18701475787501384</v>
+        <v>-0.8680905256979079</v>
       </c>
       <c r="N81" t="str">
         <v/>
@@ -3983,28 +3983,28 @@
         <v/>
       </c>
       <c r="F82">
-        <v>412.1212121212121</v>
+        <v>145.45454545454547</v>
       </c>
       <c r="G82">
-        <v>0.02079683234178116</v>
+        <v>1.7709034663257754</v>
       </c>
       <c r="H82" t="str">
         <v/>
       </c>
       <c r="I82">
-        <v>-0.6321618638650468</v>
+        <v>-0.8854517331628877</v>
       </c>
       <c r="J82" t="str">
         <v/>
       </c>
       <c r="K82">
-        <v>-0.01039841617089058</v>
+        <v>2.7550608783517756</v>
       </c>
       <c r="L82" t="str">
         <v/>
       </c>
       <c r="M82">
-        <v>0.21756476672918879</v>
+        <v>-1.238109637080378</v>
       </c>
       <c r="N82" t="str">
         <v/>
@@ -4027,28 +4027,28 @@
         <v/>
       </c>
       <c r="F83">
-        <v>417.27272727272725</v>
+        <v>147.27272727272728</v>
       </c>
       <c r="G83">
-        <v>0.01908575218890104</v>
+        <v>1.718044660757526</v>
       </c>
       <c r="H83" t="str">
         <v/>
       </c>
       <c r="I83">
-        <v>-0.0031513215312128674</v>
+        <v>-0.859022330378763</v>
       </c>
       <c r="J83" t="str">
         <v/>
       </c>
       <c r="K83">
-        <v>-0.00954287609445052</v>
+        <v>2.4698625493736763</v>
       </c>
       <c r="L83" t="str">
         <v/>
       </c>
       <c r="M83">
-        <v>-0.27557174495859493</v>
+        <v>-0.9111941777947637</v>
       </c>
       <c r="N83" t="str">
         <v/>
@@ -4071,28 +4071,28 @@
         <v/>
       </c>
       <c r="F84">
-        <v>422.42424242424244</v>
+        <v>149.0909090909091</v>
       </c>
       <c r="G84">
-        <v>0.01751545286463288</v>
+        <v>1.6667636110518804</v>
       </c>
       <c r="H84" t="str">
         <v/>
       </c>
       <c r="I84">
-        <v>-0.3712451330402122</v>
+        <v>-0.8333818055259402</v>
       </c>
       <c r="J84" t="str">
         <v/>
       </c>
       <c r="K84">
-        <v>-0.00875772643231644</v>
+        <v>2.29880306843407</v>
       </c>
       <c r="L84" t="str">
         <v/>
       </c>
       <c r="M84">
-        <v>-0.20128023671127865</v>
+        <v>-1.0272567943264381</v>
       </c>
       <c r="N84" t="str">
         <v/>
@@ -4115,28 +4115,28 @@
         <v/>
       </c>
       <c r="F85">
-        <v>427.57575757575756</v>
+        <v>150.9090909090909</v>
       </c>
       <c r="G85">
-        <v>0.016074351485690204</v>
+        <v>1.6170132235688073</v>
       </c>
       <c r="H85" t="str">
         <v/>
       </c>
       <c r="I85">
-        <v>-0.5191497943247992</v>
+        <v>-0.8085066117844036</v>
       </c>
       <c r="J85" t="str">
         <v/>
       </c>
       <c r="K85">
-        <v>-0.008037175742845102</v>
+        <v>0.6781498230451773</v>
       </c>
       <c r="L85" t="str">
         <v/>
       </c>
       <c r="M85">
-        <v>0.24501602954673465</v>
+        <v>-1.1707419469021998</v>
       </c>
       <c r="N85" t="str">
         <v/>
@@ -4159,28 +4159,28 @@
         <v/>
       </c>
       <c r="F86">
-        <v>432.72727272727275</v>
+        <v>152.72727272727272</v>
       </c>
       <c r="G86">
-        <v>0.014751818162077896</v>
+        <v>1.5687478103426133</v>
       </c>
       <c r="H86" t="str">
         <v/>
       </c>
       <c r="I86">
-        <v>0.522340668229058</v>
+        <v>-0.7843739051713067</v>
       </c>
       <c r="J86" t="str">
         <v/>
       </c>
       <c r="K86">
-        <v>-0.007375909081038948</v>
+        <v>0.9409332785303598</v>
       </c>
       <c r="L86" t="str">
         <v/>
       </c>
       <c r="M86">
-        <v>0.1919250881682956</v>
+        <v>-1.0280135650286604</v>
       </c>
       <c r="N86" t="str">
         <v/>
@@ -4203,28 +4203,28 @@
         <v/>
       </c>
       <c r="F87">
-        <v>437.8787878787879</v>
+        <v>154.54545454545453</v>
       </c>
       <c r="G87">
-        <v>0.013538097588617435</v>
+        <v>1.5219230471246825</v>
       </c>
       <c r="H87" t="str">
         <v/>
       </c>
       <c r="I87">
-        <v>-0.23909754915568968</v>
+        <v>-0.7609615235623413</v>
       </c>
       <c r="J87" t="str">
         <v/>
       </c>
       <c r="K87">
-        <v>-0.0067690487943087175</v>
+        <v>3.787885914369565</v>
       </c>
       <c r="L87" t="str">
         <v/>
       </c>
       <c r="M87">
-        <v>-0.03786076786516951</v>
+        <v>-0.479121559680231</v>
       </c>
       <c r="N87" t="str">
         <v/>
@@ -4247,28 +4247,28 @@
         <v/>
       </c>
       <c r="F88">
-        <v>443.030303030303</v>
+        <v>156.36363636363637</v>
       </c>
       <c r="G88">
-        <v>0.01242423708760743</v>
+        <v>1.4764959326785674</v>
       </c>
       <c r="H88" t="str">
         <v/>
       </c>
       <c r="I88">
-        <v>0.5097959405989413</v>
+        <v>-0.7382479663392837</v>
       </c>
       <c r="J88" t="str">
         <v/>
       </c>
       <c r="K88">
-        <v>-0.006212118543803715</v>
+        <v>1.6116211604415642</v>
       </c>
       <c r="L88" t="str">
         <v/>
       </c>
       <c r="M88">
-        <v>0.06859872907299151</v>
+        <v>-1.127975904833535</v>
       </c>
       <c r="N88" t="str">
         <v/>
@@ -4291,28 +4291,28 @@
         <v/>
       </c>
       <c r="F89">
-        <v>448.1818181818182</v>
+        <v>158.1818181818182</v>
       </c>
       <c r="G89">
-        <v>0.011402020571846375</v>
+        <v>1.432424749290071</v>
       </c>
       <c r="H89" t="str">
         <v/>
       </c>
       <c r="I89">
-        <v>-0.0661373771795841</v>
+        <v>-0.7162123746450355</v>
       </c>
       <c r="J89" t="str">
         <v/>
       </c>
       <c r="K89">
-        <v>-0.005701010285923187</v>
+        <v>0.5784394948756456</v>
       </c>
       <c r="L89" t="str">
         <v/>
       </c>
       <c r="M89">
-        <v>0.11290521578993962</v>
+        <v>-0.4088693901025658</v>
       </c>
       <c r="N89" t="str">
         <v/>
@@ -4335,28 +4335,28 @@
         <v/>
       </c>
       <c r="F90">
-        <v>453.3333333333333</v>
+        <v>160</v>
       </c>
       <c r="G90">
-        <v>0.010463907940913553</v>
+        <v>1.3896690244560308</v>
       </c>
       <c r="H90" t="str">
         <v/>
       </c>
       <c r="I90">
-        <v>0.24459477861855125</v>
+        <v>-0.6948345122280154</v>
       </c>
       <c r="J90" t="str">
         <v/>
       </c>
       <c r="K90">
-        <v>-0.005231953970456777</v>
+        <v>-0.49003232029625</v>
       </c>
       <c r="L90" t="str">
         <v/>
       </c>
       <c r="M90">
-        <v>0.18521908032533263</v>
+        <v>-1.1599220137059583</v>
       </c>
       <c r="N90" t="str">
         <v/>
@@ -4379,28 +4379,28 @@
         <v/>
       </c>
       <c r="F91">
-        <v>458.4848484848485</v>
+        <v>161.8181818181818</v>
       </c>
       <c r="G91">
-        <v>0.009602979463681402</v>
+        <v>1.3481894937166474</v>
       </c>
       <c r="H91" t="str">
         <v/>
       </c>
       <c r="I91">
-        <v>0.36032655471266734</v>
+        <v>-0.6740947468583237</v>
       </c>
       <c r="J91" t="str">
         <v/>
       </c>
       <c r="K91">
-        <v>-0.004801489731840701</v>
+        <v>0.719654035134021</v>
       </c>
       <c r="L91" t="str">
         <v/>
       </c>
       <c r="M91">
-        <v>-0.1230590343646566</v>
+        <v>-1.1309252011910558</v>
       </c>
       <c r="N91" t="str">
         <v/>
@@ -4423,28 +4423,28 @@
         <v/>
       </c>
       <c r="F92">
-        <v>463.6363636363636</v>
+        <v>163.63636363636363</v>
       </c>
       <c r="G92">
-        <v>0.008812884736812372</v>
+        <v>1.3079480645972041</v>
       </c>
       <c r="H92" t="str">
         <v/>
       </c>
       <c r="I92">
-        <v>-0.17148102992073164</v>
+        <v>-0.6539740322986021</v>
       </c>
       <c r="J92" t="str">
         <v/>
       </c>
       <c r="K92">
-        <v>-0.004406442368406186</v>
+        <v>1.0503523445370564</v>
       </c>
       <c r="L92" t="str">
         <v/>
       </c>
       <c r="M92">
-        <v>-0.4858741540415007</v>
+        <v>-0.5495686932665376</v>
       </c>
       <c r="N92" t="str">
         <v/>
@@ -4467,28 +4467,28 @@
         <v/>
       </c>
       <c r="F93">
-        <v>468.7878787878788</v>
+        <v>165.45454545454547</v>
       </c>
       <c r="G93">
-        <v>0.008087795842746293</v>
+        <v>1.268907781626074</v>
       </c>
       <c r="H93" t="str">
         <v/>
       </c>
       <c r="I93">
-        <v>0.7498317440010289</v>
+        <v>-0.634453890813037</v>
       </c>
       <c r="J93" t="str">
         <v/>
       </c>
       <c r="K93">
-        <v>-0.0040438979213731465</v>
+        <v>2.7618119731808424</v>
       </c>
       <c r="L93" t="str">
         <v/>
       </c>
       <c r="M93">
-        <v>-0.07511812177572544</v>
+        <v>-0.05543214459504864</v>
       </c>
       <c r="N93" t="str">
         <v/>
@@ -4511,28 +4511,28 @@
         <v/>
       </c>
       <c r="F94">
-        <v>473.93939393939394</v>
+        <v>167.27272727272728</v>
       </c>
       <c r="G94">
-        <v>0.007422364361661216</v>
+        <v>1.231032792396891</v>
       </c>
       <c r="H94" t="str">
         <v/>
       </c>
       <c r="I94">
-        <v>0.8070179450108039</v>
+        <v>-0.6155163961984454</v>
       </c>
       <c r="J94" t="str">
         <v/>
       </c>
       <c r="K94">
-        <v>-0.003711182180830608</v>
+        <v>0.7865818472202106</v>
       </c>
       <c r="L94" t="str">
         <v/>
       </c>
       <c r="M94">
-        <v>-0.02334864021135626</v>
+        <v>-0.4316578013035055</v>
       </c>
       <c r="N94" t="str">
         <v/>
@@ -4555,28 +4555,28 @@
         <v/>
       </c>
       <c r="F95">
-        <v>479.09090909090907</v>
+        <v>169.0909090909091</v>
       </c>
       <c r="G95">
-        <v>0.00681168192031806</v>
+        <v>1.1942883146437053</v>
       </c>
       <c r="H95" t="str">
         <v/>
       </c>
       <c r="I95">
-        <v>-0.01909824692652376</v>
+        <v>-0.5971441573218527</v>
       </c>
       <c r="J95" t="str">
         <v/>
       </c>
       <c r="K95">
-        <v>-0.00340584096015903</v>
+        <v>-1.367201417775331</v>
       </c>
       <c r="L95" t="str">
         <v/>
       </c>
       <c r="M95">
-        <v>-0.3327325706115857</v>
+        <v>-0.791177936046071</v>
       </c>
       <c r="N95" t="str">
         <v/>
@@ -4599,28 +4599,28 @@
         <v/>
       </c>
       <c r="F96">
-        <v>484.24242424242425</v>
+        <v>170.9090909090909</v>
       </c>
       <c r="G96">
-        <v>0.006251243986788494</v>
+        <v>1.1586406042989048</v>
       </c>
       <c r="H96" t="str">
         <v/>
       </c>
       <c r="I96">
-        <v>-0.03045153163318713</v>
+        <v>-0.5793203021494524</v>
       </c>
       <c r="J96" t="str">
         <v/>
       </c>
       <c r="K96">
-        <v>-0.003125621993394247</v>
+        <v>0.579478803774243</v>
       </c>
       <c r="L96" t="str">
         <v/>
       </c>
       <c r="M96">
-        <v>0.4459674389950422</v>
+        <v>-0.37184764934371795</v>
       </c>
       <c r="N96" t="str">
         <v/>
@@ -4643,28 +4643,28 @@
         <v/>
       </c>
       <c r="F97">
-        <v>489.3939393939394</v>
+        <v>172.72727272727272</v>
       </c>
       <c r="G97">
-        <v>0.005736916644007753</v>
+        <v>1.1240569245045553</v>
       </c>
       <c r="H97" t="str">
         <v/>
       </c>
       <c r="I97">
-        <v>0.004627329415808276</v>
+        <v>-0.5620284622522776</v>
       </c>
       <c r="J97" t="str">
         <v/>
       </c>
       <c r="K97">
-        <v>-0.0028684583220038766</v>
+        <v>1.8226904399349937</v>
       </c>
       <c r="L97" t="str">
         <v/>
       </c>
       <c r="M97">
-        <v>0.10638826059730445</v>
+        <v>-1.1280746103430412</v>
       </c>
       <c r="N97" t="str">
         <v/>
@@ -4687,28 +4687,28 @@
         <v/>
       </c>
       <c r="F98">
-        <v>494.54545454545456</v>
+        <v>174.54545454545453</v>
       </c>
       <c r="G98">
-        <v>0.005264906097066515</v>
+        <v>1.0905055155487038</v>
       </c>
       <c r="H98" t="str">
         <v/>
       </c>
       <c r="I98">
-        <v>-0.2696458232231696</v>
+        <v>-0.5452527577743519</v>
       </c>
       <c r="J98" t="str">
         <v/>
       </c>
       <c r="K98">
-        <v>-0.0026324530485332576</v>
+        <v>1.4405330980535451</v>
       </c>
       <c r="L98" t="str">
         <v/>
       </c>
       <c r="M98">
-        <v>0.13349637988304539</v>
+        <v>-0.603706087782237</v>
       </c>
       <c r="N98" t="str">
         <v/>
@@ -4731,28 +4731,28 @@
         <v/>
       </c>
       <c r="F99">
-        <v>499.6969696969697</v>
+        <v>176.36363636363637</v>
       </c>
       <c r="G99">
-        <v>0.004831730689320906</v>
+        <v>1.0579555656990434</v>
       </c>
       <c r="H99" t="str">
         <v/>
       </c>
       <c r="I99">
-        <v>0.1758238050396358</v>
+        <v>-0.5289777828495217</v>
       </c>
       <c r="J99" t="str">
         <v/>
       </c>
       <c r="K99">
-        <v>-0.002415865344660453</v>
+        <v>0.3225023374835012</v>
       </c>
       <c r="L99" t="str">
         <v/>
       </c>
       <c r="M99">
-        <v>-0.33252413158849553</v>
+        <v>-0.6752554745624296</v>
       </c>
       <c r="N99" t="str">
         <v/>
@@ -4775,28 +4775,28 @@
         <v/>
       </c>
       <c r="F100">
-        <v>504.8484848484849</v>
+        <v>178.1818181818182</v>
       </c>
       <c r="G100">
-        <v>0.004434195220904913</v>
+        <v>1.026377182907146</v>
       </c>
       <c r="H100" t="str">
         <v/>
       </c>
       <c r="I100">
-        <v>-0.39834425237348486</v>
+        <v>-0.513188591453573</v>
       </c>
       <c r="J100" t="str">
         <v/>
       </c>
       <c r="K100">
-        <v>-0.0022170976104524563</v>
+        <v>2.9734723551259883</v>
       </c>
       <c r="L100" t="str">
         <v/>
       </c>
       <c r="M100">
-        <v>-0.09882080590291488</v>
+        <v>-0.7163588510736407</v>
       </c>
       <c r="N100" t="str">
         <v/>
@@ -4819,28 +4819,28 @@
         <v/>
       </c>
       <c r="F101">
-        <v>510</v>
+        <v>180</v>
       </c>
       <c r="G101">
-        <v>0.004069367380212884</v>
+        <v>0.9957413673572789</v>
       </c>
       <c r="H101" t="str">
         <v/>
       </c>
       <c r="I101">
-        <v>-0.3936697836182508</v>
+        <v>-0.49787068367863946</v>
       </c>
       <c r="J101" t="str">
         <v/>
       </c>
       <c r="K101">
-        <v>-0.002034683690106442</v>
+        <v>0.2681929774076556</v>
       </c>
       <c r="L101" t="str">
         <v/>
       </c>
       <c r="M101">
-        <v>-0.13114163038311277</v>
+        <v>-0.4255575954814365</v>
       </c>
       <c r="N101" t="str">
         <v/>
